--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_6/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_6/out_of_sample/additive/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.498</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.303</v>
+        <v>17.056</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.677</v>
+        <v>0.754</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.212</v>
+        <v>13.285</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.926</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.736</v>
+        <v>7.468</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1.444592878529971</v>
+        <v>6.217936552335615</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>12.1492625288382</v>
+        <v>9.479016142178612</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>17.62308772631572</v>
+        <v>18.88091884844632</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-4.761844781876697</v>
+        <v>-1.739656648032959</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>15.71543008880653</v>
+        <v>10.83494042696142</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>19.86486761620835</v>
+        <v>13.3125899121839</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-0.3940370161869424</v>
+        <v>-0.4934699615562117</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.53890390109679</v>
+        <v>24.6218088736169</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>31.93830115366496</v>
+        <v>26.88422642802601</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>25.07300010226646</v>
+        <v>15.25236156983967</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>27.95023795659764</v>
+        <v>20.0173386264883</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>32.72856423091805</v>
+        <v>23.05742534597332</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3.279519950063055</v>
+        <v>6.281810257585033</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>17.66413632013662</v>
+        <v>10.32998131796828</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>27.08402496783279</v>
+        <v>20.5745322532749</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.554734069822588</v>
+        <v>10.56008992046961</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>19.86195598631952</v>
+        <v>21.95970290153154</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>25.71999691952961</v>
+        <v>27.75304394976538</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-2.13971068830601</v>
+        <v>-0.5898698296775216</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>14.31192589181251</v>
+        <v>10.22814047768521</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>21.50429493893122</v>
+        <v>14.75942673965356</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-1.288166084114373</v>
+        <v>-1.193883877776528</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.38277283548895</v>
+        <v>23.25346116098713</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6.140800504719103</v>
+        <v>7.416144014441088</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>19.56328694419543</v>
+        <v>17.35463314324621</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>24.01464193912261</v>
+        <v>21.73236670090475</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.7413322756608096</v>
+        <v>-1.290694842791076</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>25.24691527074427</v>
+        <v>23.87536717574619</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.9341726496441</v>
+        <v>24.42006147219885</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5.755070727081748</v>
+        <v>-0.6269960204152767</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>38.66226159200721</v>
+        <v>36.25657310409585</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>41.391304463553</v>
+        <v>35.86700403965386</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>38.13737900366195</v>
+        <v>37.23869469055979</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>40.68488307568013</v>
+        <v>40.90348381808792</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>45.53012748409936</v>
+        <v>42.58365531769074</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>11.41269389503301</v>
+        <v>11.61706628986664</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>30.79338516094941</v>
+        <v>32.01929306638841</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>38.89204276793691</v>
+        <v>36.27867399254524</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>12.932659902202</v>
+        <v>14.25628948171503</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>30.03712272970905</v>
+        <v>32.21345203502724</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>35.34539219680261</v>
+        <v>35.53767155522181</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>7.050383882722947</v>
+        <v>2.93323868454836</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>27.70915827617407</v>
+        <v>28.42448519824343</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.88517320415052</v>
+        <v>33.68312378325182</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>8.739104412387924</v>
+        <v>4.184127525598335</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>43.82039884285549</v>
+        <v>45.67166971177497</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4.93986388102792</v>
+        <v>1.725176384968201</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>19.09061102102668</v>
+        <v>13.25407585947604</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>23.78541833608942</v>
+        <v>19.96247016190289</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.5793280422072762</v>
+        <v>-1.694348433728944</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>25.6726200028843</v>
+        <v>21.60210364817502</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.7147196669441</v>
+        <v>24.50019792889929</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5.820129050204836</v>
+        <v>-0.08683912268180904</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>39.36660360885602</v>
+        <v>35.66840487200164</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>42.57359161111969</v>
+        <v>38.78144759791281</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>39.22803401214431</v>
+        <v>39.51723707993587</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>41.59964630562099</v>
+        <v>41.92992673610998</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>47.01863860341102</v>
+        <v>46.91066295642312</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>10.41854498166511</v>
+        <v>4.727713359791686</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>31.17859742234185</v>
+        <v>27.13953037634264</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>39.55908011471568</v>
+        <v>32.85569934409418</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>11.47215150372279</v>
+        <v>8.623255478335413</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.20086260392652</v>
+        <v>27.73110865010102</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>34.8434942066879</v>
+        <v>33.71890347895055</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6.547300715290008</v>
+        <v>1.433947895396663</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>27.64084324085418</v>
+        <v>24.3484439385901</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>35.43737758512505</v>
+        <v>33.52809808991937</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>8.193195959171314</v>
+        <v>3.737541979866776</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>43.81073553784582</v>
+        <v>43.38862480285368</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-1.091148342435599</v>
+        <v>-0.2908458987313018</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>11.6465454868448</v>
+        <v>8.656258401727452</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>16.5641318451531</v>
+        <v>19.95902827656656</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-7.294473244209463</v>
+        <v>-1.392605146540447</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>16.00869245043013</v>
+        <v>19.88178443693346</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>19.92093127753657</v>
+        <v>26.8939094986969</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-2.5741921971781</v>
+        <v>-1.936008540523797</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.31299135410876</v>
+        <v>32.39367170536713</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>32.35386595973613</v>
+        <v>38.89582110599899</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>28.16600170888724</v>
+        <v>32.33483799860659</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>30.82985214939841</v>
+        <v>34.95353126727393</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>35.83957413322241</v>
+        <v>42.16066574082211</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>2.420034866891381</v>
+        <v>3.735562159832213</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>20.37854638529566</v>
+        <v>22.80671012691992</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>29.08021263482072</v>
+        <v>34.43264556944074</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>4.364725620314346</v>
+        <v>5.25896546297329</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>20.74264874389766</v>
+        <v>22.9916927109975</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>26.35896668777783</v>
+        <v>31.78471568632759</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-2.86448161093357</v>
+        <v>0.6356978146652459</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>16.34614467132032</v>
+        <v>20.95450154236758</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>23.69844466754498</v>
+        <v>32.10171288995704</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-1.793800822900661</v>
+        <v>0.1168877196072842</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>32.04653614185381</v>
+        <v>35.68915584555764</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>37.25257514924583</v>
+        <v>31.12017096802901</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>27.53075210764292</v>
+        <v>22.44627761856073</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>35.04498205440832</v>
+        <v>35.2088861003043</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>41.1047254827911</v>
+        <v>36.12179275153969</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>3.918581228447525</v>
+        <v>5.232882890925794</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>30.44945280624536</v>
+        <v>22.03498669359471</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>36.18888476284685</v>
+        <v>27.01298798163386</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>8.410733687671932</v>
+        <v>12.78233413992085</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>26.94445136168317</v>
+        <v>24.4226812925903</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>35.10865230622045</v>
+        <v>35.26394323928602</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-4.695304412165171</v>
+        <v>-4.944451985923045</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>19.80108674981144</v>
+        <v>11.61468438013996</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>28.09434653563018</v>
+        <v>17.55759519376173</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-1.049867321948067</v>
+        <v>-2.871154045705623</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>38.8981296348699</v>
+        <v>29.85060040525941</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>50.01160025662469</v>
+        <v>43.52104293915647</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>42.27729452107478</v>
+        <v>30.15719405727377</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>54.18090708157401</v>
+        <v>44.48419915128173</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>61.7949130484202</v>
+        <v>50.96213238496617</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>9.901236889228127</v>
+        <v>2.513855964608155</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>44.14425184796715</v>
+        <v>28.56413396418962</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>51.65838727403742</v>
+        <v>38.37267903803612</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>51.63605000679273</v>
+        <v>53.65613666925007</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>43.96845698778807</v>
+        <v>49.77691839904308</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>50.78854596238608</v>
+        <v>57.92666725318823</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>56.98365762912912</v>
+        <v>58.53096334024337</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>15.57895991770406</v>
+        <v>16.45548190871711</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>47.97302198131856</v>
+        <v>53.51256155819497</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>52.68059387258657</v>
+        <v>55.25375307368373</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>19.04267287504687</v>
+        <v>20.59158854031009</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>40.89635945521924</v>
+        <v>39.84143588335385</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>47.93897816178832</v>
+        <v>46.37010302631066</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>8.66706992121385</v>
+        <v>4.623937293620521</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>38.24363881651392</v>
+        <v>40.69695972659925</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>45.62768888651362</v>
+        <v>43.87858111875528</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>13.24313558061771</v>
+        <v>8.679414374539721</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>58.54719378049641</v>
+        <v>61.74349496940162</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>68.49384063811878</v>
+        <v>69.24018202775508</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>64.38885304200998</v>
+        <v>72.50532082035548</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>74.93529026745617</v>
+        <v>78.4762809794687</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>82.40905172247597</v>
+        <v>83.72927058661006</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>26.03330312328043</v>
+        <v>24.0985661866892</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>66.82887974103133</v>
+        <v>73.76942332350099</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>72.64273233088521</v>
+        <v>76.03879779607615</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>52.2931577934901</v>
+        <v>55.9391323945524</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>43.51825117273431</v>
+        <v>45.10973626814869</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>50.2310988162195</v>
+        <v>51.46040190155826</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>57.23842489668169</v>
+        <v>58.1809707856145</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>13.94829990941849</v>
+        <v>9.611205298820597</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>47.88037892896234</v>
+        <v>49.82524354384016</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>52.97072008243396</v>
+        <v>53.59339150013817</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>18.99117566219583</v>
+        <v>15.15437064487226</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>41.67840902971898</v>
+        <v>36.94619035020671</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>48.90344281892374</v>
+        <v>45.39355828401522</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>9.645366713900581</v>
+        <v>3.138681445510485</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>40.15739703375785</v>
+        <v>38.78073872154208</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>47.86665680380324</v>
+        <v>44.59302922951551</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>14.62455962190182</v>
+        <v>8.78881051226093</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>60.75754446141987</v>
+        <v>62.22472054742706</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>71.08586319806309</v>
+        <v>72.6470190586481</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>66.43881381780844</v>
+        <v>73.22540492174821</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>76.77443971556166</v>
+        <v>78.11112613708931</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>84.89378786431546</v>
+        <v>87.8757648000141</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>26.25252462507623</v>
+        <v>16.23575188569917</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>68.86661929901872</v>
+        <v>72.58624787086924</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>74.87557813605451</v>
+        <v>77.45767168038225</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>40.06161449920087</v>
+        <v>51.08284231631433</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>31.77030563823816</v>
+        <v>29.83289094804379</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>38.98314366845965</v>
+        <v>38.54024775236213</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>45.46740269954284</v>
+        <v>46.32677660916494</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>4.529809283077668</v>
+        <v>6.46826024122009</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>35.31602522825084</v>
+        <v>43.68164933426887</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>40.52717132044332</v>
+        <v>50.66780525182291</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>8.829311883502466</v>
+        <v>12.31267867067779</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>29.88891558864503</v>
+        <v>34.71524870991639</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>37.41386754154</v>
+        <v>46.98595229605985</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-3.452378525380535</v>
+        <v>2.886048517762141</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>24.62599450039651</v>
+        <v>35.07339334124401</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>32.40359602586073</v>
+        <v>45.48143866209345</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.6671676121547172</v>
+        <v>4.769917776894474</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>44.59485472734048</v>
+        <v>55.94222993117452</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>55.13557866370444</v>
+        <v>71.34585181504859</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>50.03886965430483</v>
+        <v>60.84888791888915</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>61.23099542657034</v>
+        <v>70.95389174023339</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>68.98455552057609</v>
+        <v>83.15456675759924</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>13.05045745039737</v>
+        <v>11.89122030512318</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>52.23246314179677</v>
+        <v>64.69086614120572</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>58.67977201412616</v>
+        <v>76.16141869797841</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>5.316644336466069</v>
+        <v>12.78263042038131</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>13.43801701854024</v>
+        <v>13.49167177438116</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>18.36515379616713</v>
+        <v>20.91393184532019</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-0.927538866374281</v>
+        <v>1.448182165549305</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>16.27819285062126</v>
+        <v>12.46048459103549</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>19.52283406120395</v>
+        <v>13.67499878297908</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>3.121461942634149</v>
+        <v>5.974945357045971</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>27.81317118674774</v>
+        <v>25.34711972754011</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>30.53052706567535</v>
+        <v>27.56083702901913</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>24.46292060168939</v>
+        <v>16.58589519687563</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>28.29205308821338</v>
+        <v>22.3211714387413</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>32.34635500408905</v>
+        <v>24.53213815738269</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>8.761860507890717</v>
+        <v>12.98351629251494</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>19.07987335361258</v>
+        <v>14.17248986448028</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>27.97470850641407</v>
+        <v>23.40165666240636</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>5.189836213110691</v>
+        <v>10.91122963540662</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>16.09962843879228</v>
+        <v>19.56953011171565</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>22.41114784338582</v>
+        <v>26.01708319524514</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-1.886170391772357</v>
+        <v>-0.2257855007576808</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>10.5878671465089</v>
+        <v>6.608281500179324</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>18.08983220795168</v>
+        <v>11.36925608401354</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-1.720160814939121</v>
+        <v>-0.1002080571544042</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>22.34833371781012</v>
+        <v>16.42335155222159</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>10.20460731404792</v>
+        <v>14.82155361922179</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>20.65543473237287</v>
+        <v>21.510257338346</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>24.71542274609261</v>
+        <v>24.92825173296495</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>4.838687224038903</v>
+        <v>2.558314061405767</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>25.51154177986745</v>
+        <v>24.74771130742694</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>28.40094507077642</v>
+        <v>25.09470743427491</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>9.51653003658104</v>
+        <v>7.212116843207852</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>37.64933091785745</v>
+        <v>37.33599064944457</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>39.83865109253922</v>
+        <v>37.79876916502619</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>36.89328998031591</v>
+        <v>38.40187440372678</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>40.51004244406674</v>
+        <v>43.71890425895858</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>44.62130952328774</v>
+        <v>44.9659639319251</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>16.93044594954835</v>
+        <v>20.37118213111235</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>31.56342607892847</v>
+        <v>35.8580216290622</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>39.36871152484717</v>
+        <v>40.62322553355519</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>12.47654589373518</v>
+        <v>15.64377834068074</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>25.81130278311398</v>
+        <v>30.26140199457409</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>31.68539147847241</v>
+        <v>35.03738953758748</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>7.204399593155465</v>
+        <v>4.471312809458908</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>23.30859797646568</v>
+        <v>24.27856565798081</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>30.86604544860157</v>
+        <v>30.77538646860714</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>8.213210968334149</v>
+        <v>6.929885726943979</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>36.09994180631199</v>
+        <v>38.8761227513256</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>9.025267799932871</v>
+        <v>8.199026661172979</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>20.14055735240555</v>
+        <v>16.62511618009792</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>24.40192321376713</v>
+        <v>22.01300568611239</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>4.567506182314022</v>
+        <v>0.9226443109245039</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>25.76668831513984</v>
+        <v>21.58295294477512</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>28.98957176908471</v>
+        <v>24.20863385583004</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>9.405776634228767</v>
+        <v>5.926128067592277</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>38.13607446984562</v>
+        <v>35.45480335729906</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>40.76619329167121</v>
+        <v>39.19269113345575</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>37.72778514122021</v>
+        <v>38.27656827084606</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>41.19097926724709</v>
+        <v>42.70171266169645</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>45.79914056279399</v>
+        <v>46.95956811741139</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>15.93991275131083</v>
+        <v>12.71834645400435</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>31.80232306107801</v>
+        <v>30.15962347200659</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>39.91097802150076</v>
+        <v>36.79712985147059</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>11.03512436377497</v>
+        <v>8.88368614773113</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>24.94068162142795</v>
+        <v>24.57918439839839</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>31.12397333681357</v>
+        <v>32.04723163602328</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>6.596449220591644</v>
+        <v>1.507025882907634</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>23.08698080493381</v>
+        <v>18.8831373686059</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>31.23554947900799</v>
+        <v>29.52720706540924</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>7.534640552683067</v>
+        <v>4.334508433932928</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>35.92437529899228</v>
+        <v>34.77956859366568</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>3.539673468237652</v>
+        <v>5.691883941006544</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>13.39060246679307</v>
+        <v>11.53073179130475</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>17.84553761513117</v>
+        <v>20.78878306395946</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-2.607167015324759</v>
+        <v>0.5968196577892471</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>17.02098832657794</v>
+        <v>19.35405231595528</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>20.08645062629216</v>
+        <v>25.18232939695718</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>1.771996040882623</v>
+        <v>3.217512433945132</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>29.01948982232412</v>
+        <v>31.27512887392134</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>31.4652017298037</v>
+        <v>37.66695742641153</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>27.71701779293877</v>
+        <v>30.22197146929427</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>31.43219501361073</v>
+        <v>34.03190678490581</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>35.67673812493998</v>
+        <v>40.20286492564325</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>8.665067759275782</v>
+        <v>9.582675204183978</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>22.04215755243486</v>
+        <v>23.97258460048142</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>30.37570180119551</v>
+        <v>35.33866232459135</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>4.516334180701612</v>
+        <v>6.323586346219841</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>17.2000179094193</v>
+        <v>20.49584447511708</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>23.35096454367259</v>
+        <v>30.43487468809176</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-2.028005594648906</v>
+        <v>1.497824317063188</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>12.79270387115245</v>
+        <v>16.43808829955119</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>20.50766722760642</v>
+        <v>28.79577601539711</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-1.631777194117845</v>
+        <v>1.560286314311529</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>25.13973542037552</v>
+        <v>28.38330957176401</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>31.13419962456649</v>
+        <v>26.31466970272128</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>21.59035912208593</v>
+        <v>15.9379002010241</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29.04865453989786</v>
+        <v>28.18442576511054</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>35.93755772746284</v>
+        <v>32.37600807527605</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>3.976201325033511</v>
+        <v>3.699634440970399</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>24.35374196725563</v>
+        <v>16.47557950017609</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>31.78780166031389</v>
+        <v>23.39616458260156</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>8.249982823498716</v>
+        <v>14.67955462369066</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>22.38231496500158</v>
+        <v>22.59250751953644</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>30.23738650638878</v>
+        <v>31.90686746255721</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-3.234596626906868</v>
+        <v>-2.143850263087966</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>15.94385193579456</v>
+        <v>8.455809879121624</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>23.65961239392407</v>
+        <v>13.96441661844282</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-0.7286234768148141</v>
+        <v>0.9355242309521472</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>31.01174229276106</v>
+        <v>23.27283513002981</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>41.89842589419766</v>
+        <v>37.33119419244474</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>34.60489248668071</v>
+        <v>25.05051556847868</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>44.81716802012573</v>
+        <v>36.81985670283972</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>52.73613311111966</v>
+        <v>43.39284690457075</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>9.761828408774152</v>
+        <v>5.486757728844658</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>35.48160873181732</v>
+        <v>22.40631548496609</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>45.08151797653302</v>
+        <v>33.7162455363196</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>44.94547384207634</v>
+        <v>49.85544754034223</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>37.02526814003157</v>
+        <v>42.94338473415906</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>43.97888604077305</v>
+        <v>51.93865114331878</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>51.0026195734433</v>
+        <v>55.99390063802318</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>15.29532707395881</v>
+        <v>17.10555531647829</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>40.81166560961611</v>
+        <v>47.94246278420086</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>47.41582772165836</v>
+        <v>52.82249400028687</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>18.40059631540841</v>
+        <v>23.53730027972063</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>35.37980169410112</v>
+        <v>38.28675507494303</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>42.29314623227445</v>
+        <v>44.38260144730472</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>9.450950233911346</v>
+        <v>7.764420483220867</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>33.00257590248189</v>
+        <v>35.44867642724414</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>39.98944861515372</v>
+        <v>39.78106645266442</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>12.88374276389311</v>
+        <v>13.55804423022028</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>49.22816338977858</v>
+        <v>54.1198897448251</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>59.21065571112008</v>
+        <v>63.76568507027373</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>54.93453454041258</v>
+        <v>65.44344737875107</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>64.0709203158948</v>
+        <v>70.67333688735718</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>71.86704808537925</v>
+        <v>76.35477504397898</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>24.92783960015933</v>
+        <v>28.2852325772404</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>56.3177504512211</v>
+        <v>65.9050563899593</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>64.52657202933378</v>
+        <v>71.58963493634519</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>45.40895780160641</v>
+        <v>50.4818432308698</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>36.50183494885943</v>
+        <v>36.12025621913659</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>43.36124951118288</v>
+        <v>43.85401624039265</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>51.10597047389</v>
+        <v>53.65367143686435</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>13.73097740852674</v>
+        <v>9.253826918715287</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>40.61219455585777</v>
+        <v>42.77984377091652</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>47.60796928241241</v>
+        <v>50.22059742786858</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>18.22741696205668</v>
+        <v>17.20133811137711</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>35.96122759638858</v>
+        <v>34.42941158745901</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>43.04342276418818</v>
+        <v>42.51058695824755</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>10.14754899890566</v>
+        <v>5.221094301825513</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>34.54053206893173</v>
+        <v>32.6058027963799</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>41.84578433694882</v>
+        <v>39.78489402134696</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>13.92516317215271</v>
+        <v>11.7933483654418</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>51.03778355686444</v>
+        <v>53.04627216131404</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>61.3911796065353</v>
+        <v>65.88307053259837</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>56.60479513016489</v>
+        <v>63.87124588169034</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>65.56618319198527</v>
+        <v>68.46637189899366</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>73.94279228155015</v>
+        <v>78.42709882656101</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>25.00085690519224</v>
+        <v>19.86075051930885</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>57.99320560796027</v>
+        <v>63.24726379799508</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>66.40993023296637</v>
+        <v>72.04499488687006</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>34.17356382240749</v>
+        <v>46.30685501624134</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>25.75861655819</v>
+        <v>23.04326109448529</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>33.03863940687656</v>
+        <v>31.71332029511341</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>40.32867495835459</v>
+        <v>42.74485411122763</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>5.072833231180343</v>
+        <v>5.63695552617963</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.13787641865436</v>
+        <v>36.40619779252272</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>36.20595754960755</v>
+        <v>46.73241778840141</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>9.028139651180483</v>
+        <v>13.9746133869534</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>25.3010049595586</v>
+        <v>31.46435724761208</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>32.6339088062465</v>
+        <v>42.92859252931312</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-1.661023350420351</v>
+        <v>4.749503697422725</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>20.57213400570642</v>
+        <v>28.97479551265242</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>27.89070072620918</v>
+        <v>40.02280316419381</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>1.311104275043505</v>
+        <v>7.451354879583555</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>36.4327130617655</v>
+        <v>46.66324051211671</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>46.92301758387212</v>
+        <v>63.69574927592829</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>41.83247759718316</v>
+        <v>51.75207627390435</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>51.49394076881521</v>
+        <v>59.93679936307301</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>59.55150251777507</v>
+        <v>72.42055586141049</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>13.06939959742548</v>
+        <v>13.77659672273426</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>43.00428986555393</v>
+        <v>53.99779185050919</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>51.78151398650408</v>
+        <v>68.64128616733926</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>6.287225132040607</v>
+        <v>12.292879906811</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>16.12984904894536</v>
+        <v>17.96868245879651</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>20.35167788042931</v>
+        <v>23.63246727905428</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>0.2172017436620095</v>
+        <v>1.319979011014262</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>17.24645016907593</v>
+        <v>12.37862288688673</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>20.941450723037</v>
+        <v>13.96824266096407</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>4.113657873383687</v>
+        <v>5.509245699779914</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>29.13215688558628</v>
+        <v>26.79913823215296</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>32.14479499390941</v>
+        <v>28.82490892718786</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>26.98500430191937</v>
+        <v>19.49809904570784</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>29.92593972989504</v>
+        <v>24.93357955626994</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>34.139665508356</v>
+        <v>27.27584629461718</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>7.552374327069399</v>
+        <v>8.465103857862747</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>21.28070488455765</v>
+        <v>16.3469268255753</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>28.6787399986647</v>
+        <v>23.60256957305644</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>5.211650608862572</v>
+        <v>10.01000731674571</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>17.27838073262131</v>
+        <v>21.05638942842217</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>23.11714480520957</v>
+        <v>26.61267135226688</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-1.099048500443477</v>
+        <v>0.1034384952776826</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>11.28932796304965</v>
+        <v>6.89725858200099</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>18.90689368306341</v>
+        <v>12.14568680753709</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-1.23127837989739</v>
+        <v>0.05776557103012436</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>23.46109469339809</v>
+        <v>17.95900356283413</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>10.8690071047072</v>
+        <v>14.26914249067426</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>23.10653665528485</v>
+        <v>26.35348766511608</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>26.45749748007948</v>
+        <v>27.7527892773036</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>5.719464748881173</v>
+        <v>3.291558965749896</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>26.25449308881764</v>
+        <v>25.82133836101077</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.5859319785957</v>
+        <v>26.09512730183519</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>10.19731151892761</v>
+        <v>7.301822898653278</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>38.70997987857825</v>
+        <v>39.64224458713937</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>41.16848677508803</v>
+        <v>39.57028264397368</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>39.12912623191654</v>
+        <v>41.46851058359529</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>41.80888976877957</v>
+        <v>46.20189009638889</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>46.05911015791246</v>
+        <v>47.18854533833272</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>15.34253686242063</v>
+        <v>15.11164948946334</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>33.49717121102906</v>
+        <v>38.25201710100146</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>39.79111035427713</v>
+        <v>40.6964897383487</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>12.13672148909538</v>
+        <v>13.9986807874353</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>26.67605225511235</v>
+        <v>31.56713078286687</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>32.07157752672088</v>
+        <v>35.21213886782587</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>7.632737208018822</v>
+        <v>4.64496738598265</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>23.67515281725716</v>
+        <v>24.73511826743485</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>31.34396219635535</v>
+        <v>31.32553892196104</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>8.267982728491415</v>
+        <v>6.669936049952987</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>36.82702808660639</v>
+        <v>40.41813773923554</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>9.726219019597091</v>
+        <v>8.011150230162581</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>22.61469471394284</v>
+        <v>21.2553039113631</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>26.17472231858144</v>
+        <v>24.9025702121008</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>5.508301577685144</v>
+        <v>1.857346247201711</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>26.55349270461099</v>
+        <v>22.46214731750256</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>30.21987492352683</v>
+        <v>25.23510443196913</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>10.16320879207983</v>
+        <v>6.651925798960534</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>39.25225515758618</v>
+        <v>37.75717816020472</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>42.14148802074084</v>
+        <v>41.11410900853758</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>39.96015090697789</v>
+        <v>41.58921376608794</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>42.49705786800663</v>
+        <v>45.24755625369097</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>47.24452017312121</v>
+        <v>49.34174127968029</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>14.42101561981381</v>
+        <v>8.08938999272624</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>33.75405103433293</v>
+        <v>32.63496356262127</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>40.340122433536</v>
+        <v>36.74790807345947</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>10.72311070563613</v>
+        <v>7.707289835878161</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>25.8165588776016</v>
+        <v>25.93231369638186</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>31.5226880863468</v>
+        <v>32.41597533206646</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>7.060281350770881</v>
+        <v>2.016548549976498</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>23.47112261282158</v>
+        <v>19.31301760013314</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>31.72924010666775</v>
+        <v>30.17042953597754</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>7.637704764860862</v>
+        <v>4.842152224224385</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>36.67185577099123</v>
+        <v>36.5454650205513</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>4.336897687636011</v>
+        <v>6.327725865933338</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>15.9784992822775</v>
+        <v>16.65268560777783</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>19.71379354070554</v>
+        <v>24.35557771127594</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-1.599481952564052</v>
+        <v>1.671721055500413</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>17.87205222489745</v>
+        <v>20.18560379656513</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>21.38460728560563</v>
+        <v>26.50445323403365</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>2.601694167967395</v>
+        <v>4.427861848131002</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>30.21082002839275</v>
+        <v>33.71307547560087</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>32.93286546700973</v>
+        <v>40.07146875021618</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>30.09394478070379</v>
+        <v>33.67977834069708</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>32.87425922010105</v>
+        <v>37.43737853680682</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>37.27156044947244</v>
+        <v>43.80005029982469</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>7.199181428542436</v>
+        <v>6.681867352688165</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>24.09380827940943</v>
+        <v>27.58749111357667</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>30.8945102928956</v>
+        <v>36.62095397374741</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>4.322643472769773</v>
+        <v>5.231029829029179</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>18.21039135163529</v>
+        <v>21.42405941640133</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>23.87399609688007</v>
+        <v>30.61930023616399</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-1.438319924510161</v>
+        <v>1.561201262546803</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>13.30776182869821</v>
+        <v>16.17270829417686</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>21.13069335507365</v>
+        <v>28.92731687589045</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-1.387341508290017</v>
+        <v>1.796114631649537</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>26.04436999012787</v>
+        <v>29.26689415345524</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>32.07653075951203</v>
+        <v>27.19313434874731</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>23.58776757736138</v>
+        <v>18.47344707187547</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>30.54098567045961</v>
+        <v>31.20688284705503</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>36.82498363005045</v>
+        <v>33.76117057283366</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>2.63390482847797</v>
+        <v>1.757733411633723</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>25.91762067141667</v>
+        <v>18.16101157275833</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>32.15792743036116</v>
+        <v>24.56849366919781</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>7.136177608622159</v>
+        <v>12.26686708530083</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>22.52317616826731</v>
+        <v>23.54880019821254</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>30.11894843427788</v>
+        <v>32.27864482111953</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-3.787159671255719</v>
+        <v>-3.06132173841079</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>15.17841739435611</v>
+        <v>7.821359033062944</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>23.25314688339762</v>
+        <v>14.05175967952893</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-1.53211357906239</v>
+        <v>-0.9402503085357736</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>30.7213764149248</v>
+        <v>22.70755058951694</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>41.62293849952283</v>
+        <v>36.7687850258087</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>35.10319495004956</v>
+        <v>25.12108364793551</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>45.37980443564328</v>
+        <v>37.92103902422713</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>53.1538981700584</v>
+        <v>45.46390027181199</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>7.461021253936179</v>
+        <v>1.203209307002318</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>36.16211793444425</v>
+        <v>22.3279019080607</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>44.34668598062736</v>
+        <v>33.84577040507903</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>45.46692360170789</v>
+        <v>50.28951119123899</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>38.65686029400325</v>
+        <v>45.18272000210804</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>45.06159926955971</v>
+        <v>54.27214936180374</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>51.44508105486509</v>
+        <v>56.39538669977763</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>13.4637882342667</v>
+        <v>13.46166267397085</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>41.9662961202462</v>
+        <v>48.96167165945049</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>47.36528919682428</v>
+        <v>53.11488166907789</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>16.98983099897409</v>
+        <v>20.28110115416162</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>35.29299646868937</v>
+        <v>39.09570760211908</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>41.93209080005514</v>
+        <v>44.1680979740995</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>8.669231519257309</v>
+        <v>6.77938558897517</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>32.04381411736339</v>
+        <v>35.27185466315391</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>39.36676282143009</v>
+        <v>39.76319934329103</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>11.783473721949</v>
+        <v>11.25673094420486</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>48.71091671447369</v>
+        <v>53.75472486393794</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>58.6467828275632</v>
+        <v>62.79379136825322</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>55.20049853660031</v>
+        <v>65.31168923841372</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>64.33797008134269</v>
+        <v>71.21827920433563</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>71.95946540985611</v>
+        <v>77.46025489686578</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>22.26701199065595</v>
+        <v>22.22345144465535</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>56.73845631588119</v>
+        <v>65.2590024123505</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>63.49640474783909</v>
+        <v>70.6801881621752</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>45.93895525819359</v>
+        <v>51.20241345164585</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>38.09797069870133</v>
+        <v>38.8880772240501</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>44.42286261176701</v>
+        <v>46.58481098530216</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>51.53214198694629</v>
+        <v>54.62299251656264</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>11.92645904590065</v>
+        <v>6.324701933388269</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>41.75579996807262</v>
+        <v>44.13806100608138</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>47.53653899263213</v>
+        <v>50.69517729718101</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>16.81797360395841</v>
+        <v>13.68854095393713</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>35.85952764433276</v>
+        <v>34.46832041239241</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>42.67276652048757</v>
+        <v>41.75699049585571</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>9.401610383652653</v>
+        <v>3.605024994820546</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>33.58760470477337</v>
+        <v>31.29445010036737</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>41.23344505366031</v>
+        <v>38.94092437889276</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>12.85699278832106</v>
+        <v>9.31955927036222</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>50.51874417162067</v>
+        <v>51.88036963574946</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>60.82315750567361</v>
+        <v>64.2686545798895</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>56.8348250765936</v>
+        <v>63.14922694361993</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>65.80578989191474</v>
+        <v>68.34908858534766</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>74.00515875422323</v>
+        <v>79.03756964448829</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>22.36429630680676</v>
+        <v>13.53582499287855</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>58.38244557542667</v>
+        <v>61.92023275193494</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>65.35734568552402</v>
+        <v>70.39196963038182</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>34.87062072868076</v>
+        <v>46.62346235323588</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>27.55343863267793</v>
+        <v>24.65644021522345</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>34.29022082269955</v>
+        <v>34.22267901247749</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>40.94959147857643</v>
+        <v>43.73614883147111</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>3.403091918565828</v>
+        <v>3.694541588088775</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>30.45678767340309</v>
+        <v>38.01856542508801</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>36.30302437748703</v>
+        <v>47.50326774460017</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>7.719447850255136</v>
+        <v>10.67609339805434</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>25.31121856881364</v>
+        <v>31.03977152947638</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>32.37000463642316</v>
+        <v>42.07059820243856</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-2.336680398547006</v>
+        <v>2.656448038259569</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>19.69626374135</v>
+        <v>26.69912916706846</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>27.36086495251446</v>
+        <v>38.64108753995284</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>0.3356772759318076</v>
+        <v>4.7574623990287</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>36.01667577725637</v>
+        <v>44.44657378545121</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>46.47681242333023</v>
+        <v>61.61587535437077</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>42.20062185685086</v>
+        <v>49.96346873128162</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>51.88476583940021</v>
+        <v>59.53417675007406</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>59.7795003642927</v>
+        <v>73.13480257039492</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>10.51890624388946</v>
+        <v>8.66790520762509</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>43.52461851094841</v>
+        <v>52.80172971666953</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>50.84815831865265</v>
+        <v>67.45494716105024</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>6.492185026231351</v>
+        <v>9.539535834568088</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>18.46095880067245</v>
+        <v>17.51612854453376</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>23.55692396631697</v>
+        <v>25.30777968779658</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-0.1228167268646629</v>
+        <v>-0.6448223599236513</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>21.03157537411746</v>
+        <v>16.11829862617475</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>25.26624374042844</v>
+        <v>17.8935190754329</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>4.404112193570231</v>
+        <v>2.8706186468361</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>35.29188383237988</v>
+        <v>32.59878751844377</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>38.95439238825699</v>
+        <v>34.64320169138675</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>31.93958981084944</v>
+        <v>22.49955712388767</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>35.86660696420282</v>
+        <v>29.38711223381617</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>39.96110300146979</v>
+        <v>30.78953137741303</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>7.57193500686113</v>
+        <v>7.493522630140351</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>23.91621739252707</v>
+        <v>16.54569194378608</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>33.24984783850464</v>
+        <v>26.34594644833631</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>5.892884620379553</v>
+        <v>10.09071417579365</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>20.64014991151351</v>
+        <v>23.23453738245315</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>27.06356889504804</v>
+        <v>28.1574426262761</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-1.670397844750205</v>
+        <v>-1.077641662747023</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>14.60702988472649</v>
+        <v>9.886903661785244</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>22.57950915963297</v>
+        <v>13.24486075832389</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-1.5521608294823</v>
+        <v>-2.342097118767793</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.29976491674238</v>
+        <v>22.91642951503119</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>12.34142943765032</v>
+        <v>13.72878412597803</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>27.14747412541988</v>
+        <v>29.44260627588254</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>31.17871194378162</v>
+        <v>31.89482743065786</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>6.806450781272181</v>
+        <v>3.138566314728287</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>32.15442392932442</v>
+        <v>33.75179062238134</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>35.9315542589613</v>
+        <v>33.72529320270531</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>12.06223034347404</v>
+        <v>6.575119647623676</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>47.13183984697221</v>
+        <v>49.70058869170929</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>50.10945966664725</v>
+        <v>49.03309065896802</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>46.79886176156123</v>
+        <v>50.11895461096978</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>50.39722870718956</v>
+        <v>56.17874520192376</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>54.53627683069245</v>
+        <v>55.84414933746747</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>17.20783983172944</v>
+        <v>16.84314577608666</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>38.77800006390798</v>
+        <v>43.75466080922131</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>46.81221780142545</v>
+        <v>47.82106637244767</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>14.28203304453827</v>
+        <v>15.0979835938024</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>31.94359813729703</v>
+        <v>35.82861794049391</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>37.79695205310328</v>
+        <v>38.05872108727649</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>8.817172809360677</v>
+        <v>4.057542022696381</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.45932642728036</v>
+        <v>30.7864280353667</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>37.43739388468731</v>
+        <v>35.26896856842816</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>9.880751281121581</v>
+        <v>5.18726339424753</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>45.32958295208241</v>
+        <v>49.19863045584688</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>11.09425563392375</v>
+        <v>6.802117817647275</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>26.68374606897603</v>
+        <v>24.39959863360627</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>30.96075597059696</v>
+        <v>29.34269923471074</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>6.685618581650623</v>
+        <v>2.297718189348576</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>32.65231123799799</v>
+        <v>30.98904272750243</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>36.82284225310379</v>
+        <v>33.83268138045673</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>12.18065546762909</v>
+        <v>6.623628255945647</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>47.94459161065975</v>
+        <v>48.80680184310561</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>51.43301533788106</v>
+        <v>52.00280807077733</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>47.97034317653387</v>
+        <v>51.62641539238614</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>51.3847729054491</v>
+        <v>56.44811502867052</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>56.09723732543344</v>
+        <v>59.62865702984726</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>16.24670983786922</v>
+        <v>9.396248663453989</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>39.22835253169135</v>
+        <v>38.27813196404215</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>47.61975564640414</v>
+        <v>44.41811791963865</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>12.71644327067839</v>
+        <v>8.412563848753884</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>31.04618244394057</v>
+        <v>30.41456822930079</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>37.25576269425392</v>
+        <v>35.69481020543736</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>8.269218779127065</v>
+        <v>1.913447285064137</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.36539787169473</v>
+        <v>25.86193497442977</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>38.02367270416766</v>
+        <v>35.09492658178665</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>9.290564221410254</v>
+        <v>3.972903607128245</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>45.32214256321215</v>
+        <v>46.22202467834577</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>4.521150895607114</v>
+        <v>3.866141202194761</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>18.62938169402402</v>
+        <v>18.09274018001144</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>23.13431231354003</v>
+        <v>27.91507401086064</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-1.919269268486961</v>
+        <v>1.448808698140656</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>22.16986385148735</v>
+        <v>27.57364486118524</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>26.17341654009857</v>
+        <v>34.78291523968883</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>3.001145866934767</v>
+        <v>3.238527982385222</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>37.0089776956502</v>
+        <v>43.20878283195322</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>40.31563848503649</v>
+        <v>49.85978861786167</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>36.04349215291955</v>
+        <v>41.62610496001877</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>39.77396902460814</v>
+        <v>46.4083281655349</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>44.06239589484542</v>
+        <v>52.46413722754946</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>7.49624470095433</v>
+        <v>6.753773997369226</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>27.58783603418645</v>
+        <v>31.43284910685458</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>36.23892241237735</v>
+        <v>43.47902398150086</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>5.074504027319144</v>
+        <v>4.712850310760519</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>21.97820520108217</v>
+        <v>24.60829428910271</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>28.15971926534804</v>
+        <v>33.18795884124188</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-1.850477001182337</v>
+        <v>0.786061537635721</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>17.26989737267917</v>
+        <v>21.65493341780784</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>25.43722470543807</v>
+        <v>33.33905495668177</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-1.477044160128049</v>
+        <v>-0.30957213614845</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>32.66086070795052</v>
+        <v>37.17397552684152</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>38.94963817030062</v>
+        <v>30.47876555386077</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>28.75853456629994</v>
+        <v>22.2451382497606</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>37.03001923080726</v>
+        <v>36.16853269585783</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>43.71098329148346</v>
+        <v>37.12459092064456</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>3.119648357237306</v>
+        <v>2.353898872879604</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>31.35728653103969</v>
+        <v>21.47941142663618</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>38.10940818268082</v>
+        <v>26.86490228966547</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>6.388775322108906</v>
+        <v>10.59699993207204</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>24.75047799810833</v>
+        <v>23.08775651413275</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>33.42955925629887</v>
+        <v>33.06548010577463</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-6.07316062862489</v>
+        <v>-5.649698468089142</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>17.44105797705915</v>
+        <v>8.607467199613339</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>26.37094512749086</v>
+        <v>14.26954332823189</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-3.647892686954151</v>
+        <v>-5.507068376500058</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>35.49636294954109</v>
+        <v>24.81982433441175</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>48.49949198537063</v>
+        <v>39.47460429362113</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>40.48915700636417</v>
+        <v>27.36403330002443</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>52.98503087800797</v>
+        <v>42.09153889104664</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>61.76265941827106</v>
+        <v>49.91928824952927</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>6.393934730956579</v>
+        <v>-1.702580432396005</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>41.07638472317532</v>
+        <v>22.94894968110723</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>50.67956986056473</v>
+        <v>35.32724254474108</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>54.96088149028595</v>
+        <v>57.02418250221983</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>46.80701726280027</v>
+        <v>53.62112422038675</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>54.37221313682168</v>
+        <v>63.00490018835979</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>61.18523674906807</v>
+        <v>63.21664264941101</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>16.12372381167756</v>
+        <v>16.1928020474739</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>50.52540487358102</v>
+        <v>57.15136375787485</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>56.23328954572098</v>
+        <v>59.6120308514466</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>18.14478379549555</v>
+        <v>19.66275591730474</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>39.93673255061869</v>
+        <v>40.93633031620628</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>47.46326622131123</v>
+        <v>46.40888897071514</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>8.68902633931614</v>
+        <v>5.035926077893958</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>37.45386966494854</v>
+        <v>40.04806521024684</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>45.48111150433115</v>
+        <v>43.48311815076249</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>12.16089747613645</v>
+        <v>7.828041773777429</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>56.85644077929011</v>
+        <v>60.3957512155385</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>68.71251784718086</v>
+        <v>68.96726787936893</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>64.32150961510388</v>
+        <v>73.66469344954012</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>75.41756561522571</v>
+        <v>80.1000687172984</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>84.04736804997516</v>
+        <v>86.28544388454014</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>23.93154589214056</v>
+        <v>22.16701345811279</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>65.44809152388626</v>
+        <v>72.21204138663907</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>73.35462960525516</v>
+        <v>77.46335404522728</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>55.68101377883027</v>
+        <v>59.27507506608843</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>46.33130356530865</v>
+        <v>47.62605348756468</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>53.78737762333218</v>
+        <v>55.35382187829718</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>61.42663452908348</v>
+        <v>62.2413981241329</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>14.43536722037615</v>
+        <v>8.698471436760407</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>50.41893899580887</v>
+        <v>52.70111311033491</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>56.5726194197545</v>
+        <v>57.85065983707684</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>18.02147941071936</v>
+        <v>12.51752289255631</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>40.69419308697579</v>
+        <v>36.46215650450663</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>48.4239462236276</v>
+        <v>44.31560389428517</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>9.646961833921861</v>
+        <v>2.091602015601488</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>39.37740165108664</v>
+        <v>36.47528971240427</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>47.78956639905633</v>
+        <v>43.4738021228161</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>13.54673028949004</v>
+        <v>6.369202835162618</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>59.12499978622508</v>
+        <v>59.4048313751202</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>71.41296971754144</v>
+        <v>71.65301086534305</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>66.40136302538657</v>
+        <v>72.37812744216326</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>77.27660305899981</v>
+        <v>77.86261483217746</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>86.57142803646823</v>
+        <v>89.00840808110921</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>24.15176851294935</v>
+        <v>12.8871097206203</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>67.49859039794219</v>
+        <v>69.33809073884831</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>75.67394656029082</v>
+        <v>78.12277883820903</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>42.52326543042228</v>
+        <v>53.38169302997476</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>33.75339890911327</v>
+        <v>30.49283675762165</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>41.732964049618</v>
+        <v>40.39000214045894</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>48.8405462732086</v>
+        <v>49.28516433498309</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>4.282189853848436</v>
+        <v>4.671181572774319</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>36.98739560155084</v>
+        <v>45.16629158469547</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>43.23968053563934</v>
+        <v>53.74167353771676</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>7.199876054510312</v>
+        <v>8.880364398111801</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>28.15836103536152</v>
+        <v>32.55465587041508</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>36.18835561200635</v>
+        <v>44.8397151287794</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-4.268416203386483</v>
+        <v>1.049699126871751</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>22.90939604240609</v>
+        <v>31.27233363865152</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>31.34328829248348</v>
+        <v>43.43005703983938</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>-1.324629689664071</v>
+        <v>1.068417978902954</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>41.90527199908642</v>
+        <v>50.90649923445532</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>54.38943808112368</v>
+        <v>68.67788600893707</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>49.02981996293862</v>
+        <v>57.12283422643326</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>60.79128964432554</v>
+        <v>67.65838359797935</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>69.71488116443172</v>
+        <v>82.4443206868369</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>10.09427935929626</v>
+        <v>6.986208303015577</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>49.88424618095989</v>
+        <v>58.74622628042781</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>58.47257218778363</v>
+        <v>74.58459305192183</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>9.592481285880449</v>
+        <v>14.49402040981751</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>18.52302372310683</v>
+        <v>17.52726395434879</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>23.72386758859557</v>
+        <v>25.34097705130757</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>3.591867837207346</v>
+        <v>4.705275116011144</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>22.98583764616534</v>
+        <v>20.24763773463731</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>26.47907146120175</v>
+        <v>21.44210302051059</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>7.251508055528245</v>
+        <v>7.980295613316272</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>34.5669409386154</v>
+        <v>33.00912147835012</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>37.84712673869122</v>
+        <v>34.92680698751759</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>30.01743226620059</v>
+        <v>21.99378027167878</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>34.32183999979066</v>
+        <v>28.30883905524979</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>38.35881555573702</v>
+        <v>29.64880816383829</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>12.70949289220043</v>
+        <v>16.1806694222601</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>23.88380018398202</v>
+        <v>18.54738097511049</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>34.14950339403854</v>
+        <v>29.05453615858104</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>7.541450003042378</v>
+        <v>12.94449838723928</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>19.35517286335408</v>
+        <v>22.08347718248494</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>25.9956699448184</v>
+        <v>27.66407954844583</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>1.557071330697458</v>
+        <v>4.021579565645609</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>15.54803339954156</v>
+        <v>12.46819003907996</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>23.45515179336392</v>
+        <v>15.73748038052882</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>0.08806933395255712</v>
+        <v>0.4349124898232724</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>26.51068641530545</v>
+        <v>20.38537033626612</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>15.12426485920977</v>
+        <v>17.80374038808431</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>26.58112966913612</v>
+        <v>27.46700375481871</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>30.81934248166966</v>
+        <v>30.67387643181009</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>10.0896729240389</v>
+        <v>6.78346299076248</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>33.27039452966685</v>
+        <v>34.53870428502521</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>36.3680890147654</v>
+        <v>34.71399086517464</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>14.44042487245353</v>
+        <v>10.16864830538556</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>45.51653565721</v>
+        <v>47.12782594220897</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>48.21515344562108</v>
+        <v>47.0486750937533</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>43.79403959422109</v>
+        <v>46.86779880931241</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>47.84922548721467</v>
+        <v>52.71676556110208</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>51.95980726794298</v>
+        <v>52.92367759542135</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>21.83526186785082</v>
+        <v>25.20902887998978</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>37.66799926064287</v>
+        <v>43.03171775936389</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>46.79164084169967</v>
+        <v>48.75802394192247</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>15.52643190982344</v>
+        <v>17.85676357172116</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.97112334830636</v>
+        <v>33.48729939952218</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>36.1058819339126</v>
+        <v>36.87493248704083</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>11.51150927843621</v>
+        <v>8.6750564903897</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>29.46738950563268</v>
+        <v>31.13025985403648</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>37.40307407065765</v>
+        <v>36.14451855364266</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>10.96551666555646</v>
+        <v>7.564405472199674</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>41.5562929149071</v>
+        <v>44.39432407464342</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>13.95412149330206</v>
+        <v>11.28648009559662</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>26.15926964173565</v>
+        <v>23.23711990605205</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>30.60162008384393</v>
+        <v>28.45645391125342</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>9.917598308588669</v>
+        <v>5.941189430930095</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>33.68668730190412</v>
+        <v>32.3046765222113</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>37.13587521267179</v>
+        <v>34.87782075686936</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>14.47320886613642</v>
+        <v>9.815800628353472</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>46.23275744583694</v>
+        <v>46.53233253930966</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>49.3932260000533</v>
+        <v>49.88140731969224</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>44.85889625621768</v>
+        <v>47.92494202034408</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>48.73858121897159</v>
+        <v>52.73975036460548</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>53.37490054681032</v>
+        <v>56.14461773865114</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>20.9013425789813</v>
+        <v>17.91454108438535</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>38.07809106473621</v>
+        <v>37.9802839263162</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>47.54491318424806</v>
+        <v>45.82776725526556</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>14.06744819219003</v>
+        <v>11.27613035389957</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.15093457905951</v>
+        <v>28.40219145595321</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>35.60522049711053</v>
+        <v>34.50593699206571</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>10.96599296446496</v>
+        <v>6.300509985172926</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.35857763119937</v>
+        <v>26.44771523880693</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>37.91665549814496</v>
+        <v>35.81512982492834</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>10.37399314115246</v>
+        <v>5.699510775251625</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>41.54569452322663</v>
+        <v>41.33972093605865</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>7.915635776891008</v>
+        <v>8.22052011757993</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>18.73090039386019</v>
+        <v>17.49078693124584</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>23.40182681825732</v>
+        <v>26.93227111828886</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>2.050601893301618</v>
+        <v>5.356365426588898</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>24.10278108945135</v>
+        <v>29.85985261275053</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>27.39273127573101</v>
+        <v>35.86827491622739</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>6.067750318447175</v>
+        <v>6.744721413188685</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>36.19219485724544</v>
+        <v>41.97464303956765</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>39.17640685658162</v>
+        <v>47.95512318670988</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>33.85456459802502</v>
+        <v>38.81308329637527</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>38.02494454187534</v>
+        <v>42.95022884216031</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>42.26260423864484</v>
+        <v>48.58559653091228</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>12.8871795506865</v>
+        <v>14.13670106326143</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>27.36534197423595</v>
+        <v>31.13898808224864</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>37.06599710187311</v>
+        <v>44.05195033383676</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>6.947879320293243</v>
+        <v>8.314803499435559</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>20.68838902305697</v>
+        <v>23.97310243410349</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>27.12891727402729</v>
+        <v>32.88965817113169</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>1.584091365042269</v>
+        <v>6.166636248118742</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>18.14604833715823</v>
+        <v>23.95000794643124</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>26.25736982316648</v>
+        <v>35.21874343386062</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>0.3496309720044088</v>
+        <v>2.621070913569319</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.73386816784067</v>
+        <v>34.60947652825939</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>36.14857744044231</v>
+        <v>28.73687674845154</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>25.26572026599742</v>
+        <v>18.9146940310486</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>33.35114549725174</v>
+        <v>31.76044038341757</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>40.31338918819461</v>
+        <v>34.62753817756769</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>6.011305522555013</v>
+        <v>6.105682345248251</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.13642070521853</v>
+        <v>19.02501744683938</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>36.13213771654431</v>
+        <v>25.29062151288736</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>9.536337503731191</v>
+        <v>15.1084605525363</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>24.3198139507029</v>
+        <v>23.12311298109953</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>32.59401472181742</v>
+        <v>31.97931065102135</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-0.9241322998701875</v>
+        <v>1.499695934452831</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>19.57173344670205</v>
+        <v>12.87961903337914</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>27.7445063133863</v>
+        <v>17.36533838389975</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>-0.05458550955478003</v>
+        <v>0.2231863217007835</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>33.83480082330735</v>
+        <v>25.20372702138701</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>46.14144167211295</v>
+        <v>38.92286427045852</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>38.01459074221953</v>
+        <v>27.07402702560293</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>49.05087444485851</v>
+        <v>39.66616208065324</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>57.58344368643139</v>
+        <v>46.25625520470743</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>10.67811324878839</v>
+        <v>5.68642925263385</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>37.94835733038324</v>
+        <v>22.86189294833205</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>48.9746430206994</v>
+        <v>34.52983205759156</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>51.2390193534311</v>
+        <v>53.7185711348085</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>42.13235363105165</v>
+        <v>48.04055950870961</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>49.63813807387859</v>
+        <v>57.23119054206859</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>56.75531518906182</v>
+        <v>59.73045592343872</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>18.39249658542876</v>
+        <v>20.58294969014771</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>46.08166837117176</v>
+        <v>52.71563282789464</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>53.18362111064464</v>
+        <v>56.73313735335296</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>20.55260183125558</v>
+        <v>24.04623316980821</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>38.40942912284935</v>
+        <v>39.46909104980316</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>45.6403555277444</v>
+        <v>44.63199203916208</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>12.81987564209468</v>
+        <v>11.0658590603808</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>38.06118670411242</v>
+        <v>40.79753030153999</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>45.44060659395166</v>
+        <v>44.0655187004363</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>14.69948619827147</v>
+        <v>12.65397179299948</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>53.59658412586569</v>
+        <v>57.47520773176711</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>64.9238754059657</v>
+        <v>66.38607183297282</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>60.0677129229478</v>
+        <v>70.01163399680487</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>69.89677329187521</v>
+        <v>75.37273511836392</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>78.32077136996486</v>
+        <v>80.8021599116607</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>27.10545715963212</v>
+        <v>29.47452176786725</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>60.50468482777719</v>
+        <v>68.84386170283034</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>70.05210620514067</v>
+        <v>74.62728977509818</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>51.9028184966241</v>
+        <v>55.56806905350868</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>41.71665264645252</v>
+        <v>41.77311908786896</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>49.10876386497704</v>
+        <v>49.48273946588744</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>56.9831504557496</v>
+        <v>58.08920571943283</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>16.8352688200934</v>
+        <v>13.04396338516109</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>46.00357233607284</v>
+        <v>48.18146654339174</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>53.53013675234077</v>
+        <v>54.89076313948171</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>20.42781556411795</v>
+        <v>17.68613573204156</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>39.11899356772672</v>
+        <v>36.01216656935136</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>46.52326818988997</v>
+        <v>43.21488610000594</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>13.63821531067726</v>
+        <v>8.778175236768124</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>39.79986728536731</v>
+        <v>38.34539329096869</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>47.52100175783379</v>
+        <v>44.67269005290194</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>15.92046297494358</v>
+        <v>11.39471216144725</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>55.68184076990657</v>
+        <v>57.21115814154624</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>67.39767468130304</v>
+        <v>69.47922606750026</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>61.97945267052201</v>
+        <v>69.06714822030031</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>71.60433061106477</v>
+        <v>73.57442667095593</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>80.64212315514057</v>
+        <v>83.48884226685092</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>27.2843069477782</v>
+        <v>21.10623522094261</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>62.40217018211507</v>
+        <v>66.57426485864812</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>72.19206972249229</v>
+        <v>75.7818304357686</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>39.62733088790799</v>
+        <v>51.11034553469478</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.97187654469644</v>
+        <v>27.52780879519567</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>37.84223133945103</v>
+        <v>36.27105993713858</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>45.22618430923889</v>
+        <v>46.54440083933537</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>7.367851543850854</v>
+        <v>8.849698926224317</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>33.47946195542897</v>
+        <v>41.59868593829122</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>41.08552816698064</v>
+        <v>51.28578841100776</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>10.43567683079683</v>
+        <v>14.46374591364009</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>27.5235440812455</v>
+        <v>33.1833318313991</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>35.21302541158473</v>
+        <v>44.12164735710626</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>0.8620298858215634</v>
+        <v>8.677035126723833</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>24.66587768714269</v>
+        <v>35.10075898925555</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>32.40280954872598</v>
+        <v>45.56189738783188</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>2.217226573519248</v>
+        <v>7.170032092899866</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>39.78029246690399</v>
+        <v>50.93790147490803</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>51.66518929163696</v>
+        <v>67.6065105043193</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>45.92733068504842</v>
+        <v>56.1266281091656</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>56.33603231706888</v>
+        <v>64.6054140372452</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>65.02473559502914</v>
+        <v>77.58064985078559</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>14.31617524080318</v>
+        <v>14.85659155480319</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>46.12093456813649</v>
+        <v>57.14806899635992</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>56.29370301584122</v>
+        <v>72.42708562704138</v>
       </c>
     </row>
   </sheetData>
